--- a/study1/baseline_data.xlsx
+++ b/study1/baseline_data.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciangoon/thinkinghats/study1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC07D6-9A09-2746-B6D7-4196CD0536F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86BA4E9-C821-3840-B274-683CDF530C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{4A0CFD77-C9B3-FE46-A8AB-E1ACF1B556AC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" activeTab="2" xr2:uid="{4A0CFD77-C9B3-FE46-A8AB-E1ACF1B556AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$G$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="101">
   <si>
     <t>pid</t>
   </si>
@@ -91,6 +96,252 @@
   </si>
   <si>
     <t>se util</t>
+  </si>
+  <si>
+    <t>difference1</t>
+  </si>
+  <si>
+    <t>difference2</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>thinking_hat_influence</t>
+  </si>
+  <si>
+    <t>process_diff</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>code2</t>
+  </si>
+  <si>
+    <t>It frees me up a lot. I wasn't thinking of restrictions and how I can achieve this goal w/o hinderance.</t>
+  </si>
+  <si>
+    <t>I don't think I would've thought more outside the box and would've thought more practical.</t>
+  </si>
+  <si>
+    <t>freedom</t>
+  </si>
+  <si>
+    <t>It made me think of different ways that it could be done. Usually, when people come up with ideas, they think of types of food, but I came up with the cultural idea.</t>
+  </si>
+  <si>
+    <t>I probably wouldn't have thought of anything deeper than basic ideas. At first I thought of healthy food options, but then went beyond that</t>
+  </si>
+  <si>
+    <t>diverse</t>
+  </si>
+  <si>
+    <t>It's a biased opinion, but looking from a different perspective, it could really help the student community in general. Even with just being an underclassman, it's also a complaint of theirs.</t>
+  </si>
+  <si>
+    <t>I wouldn't really take any other outside thoughts into consideration.</t>
+  </si>
+  <si>
+    <t>It helped guide me in terms of what I should focus on when thinking of ideas. I would go back to the examples of questions I had so I felt it was a good guide.</t>
+  </si>
+  <si>
+    <t>I probably would have been more all over the place. It helped me go more focused on the ideas rather than things that were super broad.</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>This provided direction for thinking -- it provides the way to think, and gives a method or goals that we want to achieve.</t>
+  </si>
+  <si>
+    <t>Would have been less clear, different goals to achieve.</t>
+  </si>
+  <si>
+    <t>I liked the prompts; it helped me lay out my thoughts better and more concretely.</t>
+  </si>
+  <si>
+    <t>It probably would've taken longer, and I probably wouldn't have been as thorough in my explaining.</t>
+  </si>
+  <si>
+    <t>I tried to think positively about the possible ways to improve. I think it enhanced my thinking experience.</t>
+  </si>
+  <si>
+    <t>I think I probably would have been harder on myself and harder to think about new ideas. It gives a cue to think about new ideas.</t>
+  </si>
+  <si>
+    <t>It made me think more about how it could be practically accomplished, since it seemed like it was emphasizing real-world action.</t>
+  </si>
+  <si>
+    <t>I probably would've spent less time thinking about how it could actually play out. Less specific if I wasn't using the "thinking hat".</t>
+  </si>
+  <si>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>Useful because I could actually visualize wearing a hat, brainstorm new ideas, really liked it.</t>
+  </si>
+  <si>
+    <t>I already had the idea, but maybe my idea might not be as broad, might not think about other aspects. Really liked the description under the hat pic.</t>
+  </si>
+  <si>
+    <t>metaphor</t>
+  </si>
+  <si>
+    <t>Kind of restricted me to analytical thinking versus being creative.</t>
+  </si>
+  <si>
+    <t>I would've maybe not been so step-by-step, might have just jumped into a solution right away.</t>
+  </si>
+  <si>
+    <t>I don't think it influenced my thinking process.</t>
+  </si>
+  <si>
+    <t>I think it would be the same.</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>I think the blue thinking hat already describes my thinking process pretty well so I didn't have to constantly remind myself to think a certain way or use different methods to think.</t>
+  </si>
+  <si>
+    <t>I think if I didn't have a thinking hat the process would have been the same but it might be different if I had a different thinking hat.</t>
+  </si>
+  <si>
+    <t>It started my thinking and gave me ideas that geared my solutions. It made me keep in mind the overall big picture and what I was trying to get at.</t>
+  </si>
+  <si>
+    <t>I think my ideas would have been more vague and not necessarily focused. The thinking hat gave me quality and quantity rather than no thinking hat and just spewing out useless ideas to get quantity. the more is not always the better.</t>
+  </si>
+  <si>
+    <t>I construct my thinking process by setting multiple small steps to go from the problem to the solution.</t>
+  </si>
+  <si>
+    <t>I may not think about a more direct solution.</t>
+  </si>
+  <si>
+    <t>It gave me a set of questions to help me think of things is different ways.</t>
+  </si>
+  <si>
+    <t>I probably wouldn't try to think outside of the box; maybe do the bare minimum.</t>
+  </si>
+  <si>
+    <t>I think it allowed me to tune in with myself and plan what I wanted to say instead of throwing it out there.</t>
+  </si>
+  <si>
+    <t>I think it'd be unorganized and it'd be harder to convince someone of my ideas.</t>
+  </si>
+  <si>
+    <t>I think the TH helped me narrow down exactly what I wanted to decide on. I had a couple of ideas going through my head and being able to put down a few things helped me narrow down my ideas.</t>
+  </si>
+  <si>
+    <t>I think I probably would've taken a lot longer to decide -- I may have been more stuck on one idea instead of branching out. I kept going back to the concept of the TH, helped me think of different things instead of being stuck on one idea. I realized that the idea that I had at the end was the one that I cared about the most.</t>
+  </si>
+  <si>
+    <t>The "Thinking Hat" helped me organize my thought process. It also allowed me to take a step back and see what the problems are and how to face them. It led me to think of how to improve my idea but to also see arguments that can be made against that idea. Overall it made me see the bigger picture.</t>
+  </si>
+  <si>
+    <t>If I had done the process without the "Thinking Hat", I believe that I would have been more confused and not as organized. I was definitely a little fuzzy on how to approach the questions. Without the hat I believe that I would not have been able to convey my thoughts clearly.</t>
+  </si>
+  <si>
+    <t>The Thinking Hat was my inspiration</t>
+  </si>
+  <si>
+    <t>I'm not sure how the Thinking Hat itself helped, but the fact that something was presented to me telling me to be creative gave the impression that I need to try to be creative, which challenged myself to try to think more creatively</t>
+  </si>
+  <si>
+    <t>It was nice feeling like I had the power to change something rather then just letting it happen.</t>
+  </si>
+  <si>
+    <t>This process would have been less empowering because it would just feel like any other survey.</t>
+  </si>
+  <si>
+    <t>think that the "Thinking Hat" allowed me to think about my idea clearly. While using the "Thinking Hat" I was already brainstorming ideas about how I would go about solving the problem. Thinking about solutions also helped me think of how I would get to the solution.</t>
+  </si>
+  <si>
+    <t>If I didn't have the "Thinking Hat" I think that it would've taken longer to formulate a response as to how I would solve the problem. The "Thinking Hat" time allowed me to imagine how I would solve the problem ahead of time.</t>
+  </si>
+  <si>
+    <t>The thinking hat allowed for me to brainstorm multiple ideas as to how to improve the student dining experience. It gave me questions that helped me think more specifically about the prompt.</t>
+  </si>
+  <si>
+    <t>My process may have been different, as the thinking hat provided a less vague prompt.</t>
+  </si>
+  <si>
+    <t>I think wearing the green thinking hat had a placebo effect on me in which it enabled me to think, "okay, this hat is influencing me to think outside the box and use my creativity regardless of the feasibility of my ideas"</t>
+  </si>
+  <si>
+    <t>I would have probably thought the same way I would have--is it realistic? Is it feasible? Sure, I might have gotten to the same ideas as I did when I wore the hat, but I probably would have refuted them on the spot with a reality check, or doubt.</t>
+  </si>
+  <si>
+    <t>The thinking hat indicated the word "creativity" which made me think about not-ordinary ways of solving the problem</t>
+  </si>
+  <si>
+    <t>maybe i would think about that from a more realistic and serious prospective</t>
+  </si>
+  <si>
+    <t>It gave me a certain mindset to think in and that really helped my ideas flow.</t>
+  </si>
+  <si>
+    <t>I think my process would have been a bit more all over the place. The thinking hat really helped me narrow down my thought process to address the questions at hand.</t>
+  </si>
+  <si>
+    <t>The idea that i can be creative influenced me. I don't consider myself creative at all.</t>
+  </si>
+  <si>
+    <t>I think, I would of not elaborated as much.</t>
+  </si>
+  <si>
+    <t>It allowed me to organize my ideas better. It actually allowed me to come up with a few ideas, when at first I couldn't even think of one.</t>
+  </si>
+  <si>
+    <t>I think it would have been much more difficult to come up with any idea at all without the "Thinking Hat".</t>
+  </si>
+  <si>
+    <t>It helped a bit with goal-orientation and coming up with solution-based ideas.</t>
+  </si>
+  <si>
+    <t>It would have been about the same because I generally think that way anyways- goal-oriented.</t>
+  </si>
+  <si>
+    <t>I think it influenced my thinking process slightly. When i typically write things I don't use any sort of brain storming technique. I usually just write out the "final draft". I think the thinking hat helped me to slow down and process my ideas.</t>
+  </si>
+  <si>
+    <t>I think my idea would have been a lot more basic and not as well thought out.</t>
+  </si>
+  <si>
+    <t>i'm not really sure but i think mostly the timing and instruction at the beginning pushed me to be a creative.</t>
+  </si>
+  <si>
+    <t>i would say the process would be the same. I dont feel any differences</t>
+  </si>
+  <si>
+    <t>It gave me some things to think about and made me come up with more than one idea that I can choose from to come up with the best out of all of them. It made me question myself and think harder about possibilities that I may have.</t>
+  </si>
+  <si>
+    <t>I would just try my best to come up with one idea without thinking harder about alternative possibilities. The example questions helped guide my thinking a bit, and if I didn't have it, I would just be working with a blank canvas.</t>
+  </si>
+  <si>
+    <t>I thought about the thinking hat, but I can't say that I necessarily adhered to it all the time.</t>
+  </si>
+  <si>
+    <t>I probably would've broken down the topic my own way. (1) Think about the problem. (2) Think about way the problem exists in the first place. (3) Find evidence. (4) Come up with solutions. (5) Apply the solutions to the problem.</t>
+  </si>
+  <si>
+    <t>The thinking hat helped me focus on the issue and focus on the question that helped explain and solve the issue.</t>
+  </si>
+  <si>
+    <t>It would have been harder to come up with the reasons why the issue mattered and the ideas that could be helpful to resolve the issue. Without this thinking hat, the task would of taken much longer.</t>
+  </si>
+  <si>
+    <t>I feel that I would have gone off tangent a lot as I was writing. Without a main goal or a task/list of what to do, I feel that it's a lot easier to fall off tangent.</t>
   </si>
 </sst>
 </file>
@@ -238,10 +489,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.18</c:v>
+                    <c:v>0.17</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.22</c:v>
+                    <c:v>0.19</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -253,10 +504,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.18</c:v>
+                    <c:v>0.17</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.22</c:v>
+                    <c:v>0.19</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -265,10 +516,7 @@
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -296,10 +544,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.4700000000000002</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.18</c:v>
+                  <c:v>3.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,10 +593,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.2</c:v>
+                    <c:v>0.15</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19</c:v>
+                    <c:v>0.18</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -360,10 +608,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.2</c:v>
+                    <c:v>0.15</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19</c:v>
+                    <c:v>0.18</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -372,10 +620,7 @@
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -403,10 +648,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.02</c:v>
+                  <c:v>3.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.91</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,7 +891,434 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F93D-AD42-A553-222030AAD1B2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F93D-AD42-A553-222030AAD1B2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$L$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$L$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$J$2:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exploit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Explore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F93D-AD42-A553-222030AAD1B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="133"/>
+        <c:overlap val="-7"/>
+        <c:axId val="1088007824"/>
+        <c:axId val="1420113536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1088007824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1420113536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1420113536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Average Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088007824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1189,20 +1861,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1229,16 +2404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>546101</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800101</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1252,9 +2427,9 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3848101" y="1524001"/>
-          <a:ext cx="1079500" cy="495300"/>
+        <a:xfrm rot="20619274">
+          <a:off x="2577795" y="1274591"/>
+          <a:ext cx="1080265" cy="482447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1296,16 +2471,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>546099</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800099</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1319,8 +2494,8 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3022599" y="2070100"/>
+        <a:xfrm rot="20248275">
+          <a:off x="1803400" y="2120900"/>
           <a:ext cx="1079500" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1363,16 +2538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1387,7 +2562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3829050" y="1149350"/>
+          <a:off x="2609850" y="908050"/>
           <a:ext cx="152400" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
@@ -1422,16 +2597,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>790001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>497901</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1446,8 +2621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="1206500"/>
-          <a:ext cx="533400" cy="241300"/>
+          <a:off x="2442531" y="935363"/>
+          <a:ext cx="534165" cy="237015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,7 +2655,169 @@
             <a:rPr lang="en-US" sz="1800">
               <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>**</a:t>
+            <a:t>***</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0383CF-3418-4E4D-810E-B49E034BF67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>363252</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Left Brace 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BB35BC-46BE-7243-AC9F-5E1732B26F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10697454" y="556735"/>
+          <a:ext cx="145211" cy="2321807"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>589555</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297455</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE51B3D-F943-CC4A-95F3-C492EC5061BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10504736" y="1304428"/>
+          <a:ext cx="534165" cy="237015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>***</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1787,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B92BFE-85A2-444D-A4C5-4B6A4419C042}">
-  <dimension ref="A1:V1001"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1823,9 +3160,15 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
@@ -1839,35 +3182,44 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
       <c r="H2" s="3">
-        <v>3.5</v>
+        <f t="shared" ref="H2:H33" si="0">AVERAGE(D2,F2)</f>
+        <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+        <f t="shared" ref="I2:I33" si="1">AVERAGE(E2,G2)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L33" si="2">AVERAGE(J2:K2)</f>
+        <v>1</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1881,35 +3233,44 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
       <c r="F3" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1923,35 +3284,44 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1965,35 +3335,44 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
       </c>
       <c r="F5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>4</v>
       </c>
       <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I5" s="3">
-        <v>4</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -2007,19 +3386,19 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -2028,14 +3407,23 @@
         <v>2</v>
       </c>
       <c r="H6" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2049,7 +3437,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -2058,26 +3446,35 @@
         <v>11</v>
       </c>
       <c r="D7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2091,7 +3488,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -2100,26 +3497,35 @@
         <v>10</v>
       </c>
       <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2133,35 +3539,44 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
       </c>
       <c r="F9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2175,35 +3590,44 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
       <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2217,10 +3641,10 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -2238,14 +3662,23 @@
         <v>3</v>
       </c>
       <c r="H11" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2259,19 +3692,19 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -2280,14 +3713,23 @@
         <v>3</v>
       </c>
       <c r="H12" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2301,7 +3743,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
@@ -2313,23 +3755,32 @@
         <v>2</v>
       </c>
       <c r="E13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
       <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>2</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2343,7 +3794,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
@@ -2352,26 +3803,35 @@
         <v>10</v>
       </c>
       <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2406,14 +3866,23 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I15" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2427,35 +3896,44 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2469,7 +3947,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
@@ -2478,26 +3956,35 @@
         <v>11</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2511,35 +3998,44 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="4">
+      <c r="K18" s="3">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2553,35 +4049,44 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
       </c>
       <c r="F19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="4">
         <v>4</v>
       </c>
       <c r="H19" s="3">
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="I19" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2595,35 +4100,44 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>2</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="I20" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2637,7 +4151,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -2646,10 +4160,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -2658,14 +4172,23 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="I21" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2679,35 +4202,44 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
       </c>
       <c r="H22" s="3">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="I22" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2721,7 +4253,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
@@ -2730,26 +4262,35 @@
         <v>11</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="4">
         <v>4</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
       <c r="I23" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2763,35 +4304,44 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4">
         <v>4</v>
       </c>
       <c r="F24" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4">
         <v>4</v>
       </c>
       <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2805,7 +4355,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
@@ -2814,26 +4364,35 @@
         <v>10</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="4">
         <v>4</v>
       </c>
       <c r="F25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4">
         <v>4</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I25" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="J25" s="3">
+        <v>4</v>
+      </c>
+      <c r="K25" s="3">
+        <v>4</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2847,35 +4406,44 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
       <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
         <v>4</v>
       </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
       <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="J26" s="3">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2889,35 +4457,44 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
       </c>
       <c r="F27" s="4">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4">
         <v>4</v>
       </c>
-      <c r="G27" s="4">
-        <v>2</v>
-      </c>
       <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I27" s="3">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="J27" s="3">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2931,13 +4508,13 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4">
         <v>3</v>
@@ -2952,14 +4529,23 @@
         <v>3</v>
       </c>
       <c r="H28" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I28" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="J28" s="3">
+        <v>2</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2973,35 +4559,44 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
         <v>2</v>
       </c>
-      <c r="E29" s="4">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="3">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="K29" s="3">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -3015,7 +4610,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
@@ -3027,23 +4622,32 @@
         <v>3</v>
       </c>
       <c r="E30" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
       </c>
       <c r="H30" s="3">
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I30" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -3057,7 +4661,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -3066,7 +4670,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
@@ -3078,14 +4682,23 @@
         <v>3</v>
       </c>
       <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="I31" s="3">
-        <v>3</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -3099,7 +4712,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
@@ -3111,23 +4724,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
         <v>3</v>
       </c>
-      <c r="F32" s="4">
-        <v>4</v>
-      </c>
       <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H32" s="3">
-        <v>3.5</v>
-      </c>
       <c r="I32" s="3">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -3141,10 +4763,10 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>11</v>
@@ -3153,23 +4775,32 @@
         <v>3</v>
       </c>
       <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="3">
         <v>4</v>
       </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="K33" s="3">
         <v>4</v>
       </c>
-      <c r="H33" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -3183,7 +4814,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>9</v>
@@ -3191,27 +4822,36 @@
       <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>2</v>
+      <c r="D34" s="4">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4</v>
       </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <f t="shared" ref="H34:H51" si="3">AVERAGE(D34,F34)</f>
+        <v>3.5</v>
       </c>
       <c r="I34" s="3">
-        <v>2</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+        <f t="shared" ref="I34:I51" si="4">AVERAGE(E34,G34)</f>
+        <v>4</v>
+      </c>
+      <c r="J34" s="3">
+        <v>3</v>
+      </c>
+      <c r="K34" s="3">
+        <v>3</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" ref="L34:L65" si="5">AVERAGE(J34:K34)</f>
+        <v>3</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3225,35 +4865,44 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="4">
         <v>4</v>
       </c>
       <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="J35" s="3">
         <v>2</v>
       </c>
-      <c r="G35" s="4">
+      <c r="K35" s="3">
         <v>2</v>
       </c>
-      <c r="H35" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -3266,24 +4915,47 @@
       <c r="V35" s="3"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="G36" s="4">
+        <v>3</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J36" s="3">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3">
+        <v>4</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -3291,41 +4963,46 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="4">
         <v>4</v>
       </c>
       <c r="E37" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" s="4">
+        <v>3</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J37" s="3">
         <v>1</v>
       </c>
-      <c r="H37" s="3">
-        <v>4</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -3333,16 +5010,16 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4">
         <v>2</v>
@@ -3354,20 +5031,25 @@
         <v>2</v>
       </c>
       <c r="H38" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3</v>
+      </c>
+      <c r="K38" s="3">
         <v>4</v>
       </c>
-      <c r="I38" s="3">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -3375,41 +5057,46 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="3">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="4">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4">
         <v>2</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>4</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="4">
-        <v>4</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="I39" s="3">
-        <v>4</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -3417,41 +5104,46 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="3">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="4">
         <v>4</v>
       </c>
       <c r="E40" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="3">
-        <v>3.5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I40" s="3">
-        <v>3</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J40" s="3">
+        <v>4</v>
+      </c>
+      <c r="K40" s="3">
+        <v>4</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
@@ -3459,7 +5151,7 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="3">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -3468,32 +5160,37 @@
         <v>10</v>
       </c>
       <c r="D41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="3">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I41" s="3">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -3501,41 +5198,46 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" s="4">
         <v>4</v>
       </c>
       <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4">
         <v>3</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="3">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="J42" s="3">
         <v>3</v>
       </c>
-      <c r="I42" s="3">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="K42" s="3">
+        <v>2</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -3543,7 +5245,7 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>9</v>
@@ -3552,32 +5254,37 @@
         <v>10</v>
       </c>
       <c r="D43" s="4">
+        <v>4</v>
+      </c>
+      <c r="E43" s="4">
         <v>3</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>4</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>2</v>
       </c>
-      <c r="G43" s="4">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="I43" s="3">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -3585,13 +5292,13 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="3">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4">
         <v>4</v>
@@ -3603,23 +5310,28 @@
         <v>4</v>
       </c>
       <c r="G44" s="4">
+        <v>2</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -3627,41 +5339,46 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="3">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
       </c>
       <c r="F45" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I45" s="3">
-        <v>2</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -3669,41 +5386,46 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="3">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I46" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
       <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -3711,41 +5433,46 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="3">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47" s="4">
         <v>2</v>
       </c>
       <c r="F47" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" s="4">
         <v>2</v>
       </c>
       <c r="H47" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I47" s="3">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="J47" s="3">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
       <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -3753,41 +5480,46 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="3">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="3">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I48" s="3">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -3816,20 +5548,25 @@
         <v>1</v>
       </c>
       <c r="H49" s="3">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I49" s="3">
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="J49" s="3">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
       <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -3837,19 +5574,19 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4">
         <v>4</v>
@@ -3858,20 +5595,25 @@
         <v>2</v>
       </c>
       <c r="H50" s="3">
-        <v>3.5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I50" s="3">
-        <v>2</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="J50" s="3">
+        <v>4</v>
+      </c>
+      <c r="K50" s="3">
+        <v>4</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -3879,74 +5621,61 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="3">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H51" s="3">
-        <v>2</v>
-      </c>
       <c r="I51" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J51" s="3">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="3">
-        <v>50</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="4">
-        <v>4</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4">
-        <v>4</v>
-      </c>
-      <c r="G52" s="4">
-        <v>2</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1.5</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -26713,46 +28442,27 @@
       <c r="U1000" s="3"/>
       <c r="V1000" s="3"/>
     </row>
-    <row r="1001" spans="1:22">
-      <c r="A1001" s="3"/>
-      <c r="B1001" s="3"/>
-      <c r="C1001" s="3"/>
-      <c r="D1001" s="3"/>
-      <c r="E1001" s="3"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="3"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="3"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="3"/>
-      <c r="O1001" s="3"/>
-      <c r="P1001" s="3"/>
-      <c r="Q1001" s="3"/>
-      <c r="R1001" s="3"/>
-      <c r="S1001" s="3"/>
-      <c r="T1001" s="3"/>
-      <c r="U1001" s="3"/>
-      <c r="V1001" s="3"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:L1000" xr:uid="{A0FA9385-C7FE-7E41-A995-509B4E75F8EF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1000">
+      <sortCondition ref="H1:H1000"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D730AD4-657C-4E49-B6F6-7F6EECC6BDE1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -26765,43 +28475,913 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>2.4700000000000002</v>
+        <f>AVERAGEIF(Sheet1!$C:$C,"blue",Sheet1!H:H)</f>
+        <v>2.4</v>
       </c>
       <c r="C2">
-        <v>3.18</v>
+        <f>AVERAGEIF(Sheet1!$C:$C,"blue",Sheet1!I:I)</f>
+        <v>3.02</v>
       </c>
       <c r="D2">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E2">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGEIF(Sheet1!$C:$C,"blue",Sheet1!L:L)</f>
+        <v>2.04</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
+        <f>AVERAGEIF(Sheet1!$C:$C,"green",Sheet1!H:H)</f>
+        <v>3.28</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGEIF(Sheet1!$C:$C,"green",Sheet1!I:I)</f>
+        <v>2.86</v>
+      </c>
+      <c r="D3">
+        <v>0.15</v>
+      </c>
+      <c r="E3">
+        <v>0.18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGEIF(Sheet1!$C:$C,"green",Sheet1!L:L)</f>
         <v>3.02</v>
       </c>
-      <c r="C3">
-        <v>2.91</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.19</v>
+      <c r="L3">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5742B5-3B53-F545-92E4-B2E523AC0BEF}">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIFS($C:$C,"blue",$F:$F,"freedom")+COUNTIFS(C:C,"blue",G:G,"freedom")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIFS($C:$C,"green",$F:$F,"freedom")+COUNTIFS($C:$C,"green",$G:$G,"freedom")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIFS($C:$C,"blue",$F:$F,"diverse")+COUNTIFS($C:$C,"blue",$G:$G,"diverse")</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIFS($C:$C,"green",$F:$F,"diverse")+COUNTIFS($C:$C,"green",$G:$G,"diverse")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIFS($C:$C,"blue",$F:$F,"focus")+COUNTIFS($C:$C,"blue",$G:$G,"focus")</f>
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS($C:$C,"green",$F:$F,"focus")+COUNTIFS($C:$C,"green",$G:$G,"focus")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIFS($C:$C,"blue",$F:$F,"practical")+COUNTIFS($C:$C,"blue",$G:$G,"practical")</f>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIFS($C:$C,"green",$F:$F,"practical")+COUNTIFS($C:$C,"green",$G:$G,"practical")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIFS($C:$C,"blue",$F:$F,"metaphor")+COUNTIFS($C:$C,"blue",$G:$G,"metaphor")</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIFS($C:$C,"green",$F:$F,"metaphor")+COUNTIFS($C:$C,"green",$G:$G,"metaphor")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <f>COUNTIFS($C:$C,"blue",$F:$F,"none")+COUNTIFS($C:$C,"blue",$G:$G,"none")</f>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIFS($C:$C,"green",$F:$F,"none")+COUNTIFS($C:$C,"green",$G:$G,"none")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G35" xr:uid="{05478C10-B6B2-3A42-ABE9-E8EC76A22374}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
+      <sortCondition ref="F1:F35"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>